--- a/RefrescosPaneles.xlsx
+++ b/RefrescosPaneles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024\CEPAL\Ecuador\paquete_rotacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024\CEPAL\Ecuador\paquete_rotacion\poo_rotacion_costaRica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA9E54-6B58-4202-8835-7D25A5E14CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F2D56-9996-459C-81C7-7C067F304D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5987" uniqueCount="291">
   <si>
     <t>trimestre</t>
   </si>
@@ -894,6 +894,15 @@
   </si>
   <si>
     <t>Siempre son 2505</t>
+  </si>
+  <si>
+    <t>viv1</t>
+  </si>
+  <si>
+    <t>viv12</t>
+  </si>
+  <si>
+    <t>viv13</t>
   </si>
 </sst>
 </file>
@@ -970,7 +979,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1089,11 +1098,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1168,10 +1339,67 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1369,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1390,23 +1618,23 @@
     <col min="25" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1459,22 +1687,22 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1520,7 +1748,7 @@
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1532,10 +1760,10 @@
       <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1582,7 +1810,7 @@
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1594,10 +1822,10 @@
       <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -1634,7 +1862,7 @@
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1646,10 +1874,10 @@
       <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -1680,7 +1908,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="26" t="s">
         <v>287</v>
       </c>
       <c r="U5" s="10"/>
@@ -1692,7 +1920,7 @@
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1704,10 +1932,10 @@
       <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -1745,7 +1973,7 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1757,10 +1985,10 @@
       <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -1802,7 +2030,7 @@
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1814,10 +2042,10 @@
       <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -1859,26 +2087,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -1918,22 +2146,22 @@
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1963,7 +2191,7 @@
       <c r="P10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="26">
         <v>2505</v>
       </c>
       <c r="R10" s="2">
@@ -1992,7 +2220,7 @@
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2004,10 +2232,10 @@
       <c r="E11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -2052,7 +2280,7 @@
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2064,10 +2292,10 @@
       <c r="E12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -2110,7 +2338,7 @@
       <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -2122,10 +2350,10 @@
       <c r="E13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -2168,7 +2396,7 @@
       <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -2180,10 +2408,10 @@
       <c r="E14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -2221,7 +2449,7 @@
       <c r="A15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -2233,10 +2461,10 @@
       <c r="E15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -2274,7 +2502,7 @@
       <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -2286,10 +2514,10 @@
       <c r="E16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -2324,26 +2552,26 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -2380,22 +2608,22 @@
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -2448,7 +2676,7 @@
       <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="35" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2460,10 +2688,10 @@
       <c r="E19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -2500,7 +2728,7 @@
       <c r="A20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="35" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2512,10 +2740,10 @@
       <c r="E20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -2553,7 +2781,7 @@
       <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="35" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2565,10 +2793,10 @@
       <c r="E21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -2607,7 +2835,7 @@
       <c r="A22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2619,10 +2847,10 @@
       <c r="E22" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -2660,7 +2888,7 @@
       <c r="A23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2672,10 +2900,10 @@
       <c r="E23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -2712,7 +2940,7 @@
       <c r="A24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2724,10 +2952,10 @@
       <c r="E24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -2760,26 +2988,26 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -2817,22 +3045,22 @@
       <c r="A26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -2885,7 +3113,7 @@
       <c r="A27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -2897,10 +3125,10 @@
       <c r="E27" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -2937,7 +3165,7 @@
       <c r="A28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -2949,10 +3177,10 @@
       <c r="E28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="8" t="s">
         <v>134</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -2989,7 +3217,7 @@
       <c r="A29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3001,10 +3229,10 @@
       <c r="E29" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>134</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -3041,7 +3269,7 @@
       <c r="A30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -3053,10 +3281,10 @@
       <c r="E30" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>134</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -3094,7 +3322,7 @@
       <c r="A31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -3106,10 +3334,10 @@
       <c r="E31" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>134</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -3148,7 +3376,7 @@
       <c r="A32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="35" t="s">
         <v>153</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -3160,10 +3388,10 @@
       <c r="E32" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>154</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -3196,26 +3424,26 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="8" t="s">
         <v>154</v>
       </c>
       <c r="H33" s="8" t="s">
@@ -3252,22 +3480,22 @@
       <c r="A34" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="8" t="s">
         <v>154</v>
       </c>
       <c r="H34" s="8" t="s">
@@ -3320,7 +3548,7 @@
       <c r="A35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="35" t="s">
         <v>153</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -3332,10 +3560,10 @@
       <c r="E35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="8" t="s">
         <v>154</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -3373,7 +3601,7 @@
       <c r="A36" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="35" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -3385,10 +3613,10 @@
       <c r="E36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="8" t="s">
         <v>154</v>
       </c>
       <c r="H36" s="8" t="s">
@@ -3427,7 +3655,7 @@
       <c r="A37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -3439,10 +3667,10 @@
       <c r="E37" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>174</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -3479,7 +3707,7 @@
       <c r="A38" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -3491,10 +3719,10 @@
       <c r="E38" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="8" t="s">
         <v>174</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -3532,7 +3760,7 @@
       <c r="A39" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -3544,10 +3772,10 @@
       <c r="E39" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="8" t="s">
         <v>174</v>
       </c>
       <c r="H39" s="8" t="s">
@@ -3584,7 +3812,7 @@
       <c r="A40" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -3596,10 +3824,10 @@
       <c r="E40" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="8" t="s">
         <v>174</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -3633,26 +3861,26 @@
       <c r="R40" s="2"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="8" t="s">
         <v>174</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -3691,22 +3919,22 @@
       <c r="A42" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="8" t="s">
         <v>194</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -3759,7 +3987,7 @@
       <c r="A43" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="35" t="s">
         <v>193</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -3771,10 +3999,10 @@
       <c r="E43" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="8" t="s">
         <v>194</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -3811,7 +4039,7 @@
       <c r="A44" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="35" t="s">
         <v>193</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -3823,10 +4051,10 @@
       <c r="E44" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="8" t="s">
         <v>194</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -3863,7 +4091,7 @@
       <c r="A45" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="35" t="s">
         <v>193</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -3875,10 +4103,10 @@
       <c r="E45" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="8" t="s">
         <v>194</v>
       </c>
       <c r="H45" s="8" t="s">
@@ -3916,7 +4144,7 @@
       <c r="A46" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="35" t="s">
         <v>193</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -3928,10 +4156,10 @@
       <c r="E46" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="8" t="s">
         <v>194</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -3970,7 +4198,7 @@
       <c r="A47" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="35" t="s">
         <v>213</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -3982,10 +4210,10 @@
       <c r="E47" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="8" t="s">
         <v>214</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -4022,7 +4250,7 @@
       <c r="A48" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="35" t="s">
         <v>213</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -4034,10 +4262,10 @@
       <c r="E48" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="8" t="s">
         <v>214</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -4070,26 +4298,26 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>214</v>
       </c>
       <c r="H49" s="8" t="s">
@@ -4126,22 +4354,22 @@
       <c r="A50" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>214</v>
       </c>
       <c r="H50" s="8" t="s">
@@ -4194,7 +4422,7 @@
       <c r="A51" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="35" t="s">
         <v>213</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -4206,10 +4434,10 @@
       <c r="E51" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="8" t="s">
         <v>214</v>
       </c>
       <c r="H51" s="8" t="s">
@@ -4248,7 +4476,7 @@
       <c r="A52" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="35" t="s">
         <v>233</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -4260,10 +4488,10 @@
       <c r="E52" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="8" t="s">
         <v>234</v>
       </c>
       <c r="H52" s="8" t="s">
@@ -4300,7 +4528,7 @@
       <c r="A53" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="35" t="s">
         <v>233</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -4312,10 +4540,10 @@
       <c r="E53" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="8" t="s">
         <v>234</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -4352,7 +4580,7 @@
       <c r="A54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="35" t="s">
         <v>233</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -4364,10 +4592,10 @@
       <c r="E54" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="8" t="s">
         <v>234</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -4405,7 +4633,7 @@
       <c r="A55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="35" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -4417,10 +4645,10 @@
       <c r="E55" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="8" t="s">
         <v>234</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -4458,7 +4686,7 @@
       <c r="A56" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="35" t="s">
         <v>233</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -4470,10 +4698,10 @@
       <c r="E56" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="8" t="s">
         <v>234</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -4508,26 +4736,26 @@
       <c r="T56"/>
       <c r="U56"/>
     </row>
-    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="8" t="s">
         <v>254</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -4564,19 +4792,19 @@
       <c r="A58" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="41" t="s">
         <v>257</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -4795,7 +5023,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="66" spans="19:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:20" x14ac:dyDescent="0.2">
       <c r="S66" s="1" t="s">
         <v>4</v>
       </c>
@@ -4804,10 +5032,55 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="69" spans="19:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:20" x14ac:dyDescent="0.2">
       <c r="T69" s="2">
         <f>T66/2505</f>
         <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F71" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="I77" s="1">
+        <f>12*13</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G86" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G89" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
